--- a/doc/design/DB_NE.xlsx
+++ b/doc/design/DB_NE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Cat</t>
-  </si>
-  <si>
     <t>Items</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Current_status</t>
-  </si>
-  <si>
     <t>Items Access</t>
   </si>
   <si>
@@ -217,6 +211,15 @@
   </si>
   <si>
     <t>ne_role</t>
+  </si>
+  <si>
+    <t>ne_cat_item</t>
+  </si>
+  <si>
+    <t>cat_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -271,19 +274,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -311,23 +301,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -342,7 +352,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,37 +690,41 @@
   <dimension ref="A2:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="23" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
+    <col min="3" max="9" width="23" style="2" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="23" style="2" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
     <col min="14" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
+      <c r="B2" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -723,32 +740,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
+      <c r="B4" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4"/>
       <c r="J4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>8</v>
@@ -758,73 +775,73 @@
       </c>
       <c r="I5"/>
       <c r="J5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6"/>
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9"/>
       <c r="E9" s="1"/>
@@ -832,17 +849,17 @@
         <v>2</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="1"/>
@@ -850,15 +867,15 @@
         <v>3</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="7" t="s">
@@ -870,10 +887,10 @@
       <c r="I11" s="1"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="7" t="s">
@@ -884,13 +901,13 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13"/>
@@ -902,13 +919,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
-        <v>64</v>
-      </c>
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14"/>
@@ -917,10 +932,10 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="D15" s="6" t="s">
         <v>0</v>
@@ -930,13 +945,13 @@
       <c r="H15"/>
       <c r="I15" s="3"/>
       <c r="J15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>12</v>
@@ -944,14 +959,12 @@
       <c r="H16"/>
       <c r="I16" s="3"/>
       <c r="J16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17"/>
       <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
@@ -959,17 +972,17 @@
         <v>0</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>22</v>
@@ -983,13 +996,13 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>23</v>
@@ -999,17 +1012,17 @@
         <v>14</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>24</v>
@@ -1019,17 +1032,17 @@
         <v>15</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>25</v>
@@ -1039,17 +1052,17 @@
         <v>16</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>26</v>
@@ -1062,14 +1075,14 @@
         <v>2</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>27</v>
@@ -1081,14 +1094,12 @@
       <c r="H23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="8"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>28</v>
@@ -1102,8 +1113,11 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D25" s="7" t="s">
+    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="1"/>
@@ -1115,7 +1129,10 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D26" s="9" t="s">
         <v>30</v>
       </c>
@@ -1124,15 +1141,12 @@
         <v>4</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="J26" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="1"/>
@@ -1141,190 +1155,178 @@
       </c>
       <c r="H27"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>32</v>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="E28" s="1"/>
       <c r="H28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>33</v>
+      <c r="J28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1"/>
       <c r="H29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
-        <v>36</v>
+      <c r="J29" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1"/>
       <c r="H30" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1"/>
       <c r="H31" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="1"/>
       <c r="H32" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
-        <v>4</v>
-      </c>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
       <c r="E33" s="1"/>
       <c r="H33" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>5</v>
-      </c>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
       <c r="E34" s="1"/>
       <c r="H34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
       <c r="E35" s="1"/>
       <c r="H35" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
       <c r="E36" s="1"/>
-      <c r="H36" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="I36" s="1"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H37"/>
       <c r="I37" s="1"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H38"/>
       <c r="I38" s="1"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E39"/>
       <c r="F39"/>
       <c r="H39"/>
       <c r="I39" s="1"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E40"/>
       <c r="F40"/>
       <c r="H40"/>
       <c r="I40" s="1"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E41"/>
       <c r="F41"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E42"/>
       <c r="F42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E43"/>
       <c r="F43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E44"/>
       <c r="F44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E45"/>
       <c r="F45"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -1333,7 +1335,7 @@
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -1342,7 +1344,7 @@
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
@@ -1351,7 +1353,7 @@
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -1360,7 +1362,7 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
@@ -1369,7 +1371,7 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -1379,7 +1381,7 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -1389,7 +1391,7 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
@@ -1398,7 +1400,7 @@
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
@@ -1407,7 +1409,7 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55"/>
       <c r="E55" s="1"/>
       <c r="F55"/>
@@ -1416,7 +1418,7 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D56"/>
       <c r="E56" s="1"/>
       <c r="F56"/>
@@ -1425,7 +1427,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D57"/>
       <c r="E57" s="1"/>
       <c r="F57"/>
@@ -1434,7 +1436,7 @@
       <c r="I57" s="1"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D58"/>
       <c r="E58" s="1"/>
       <c r="F58"/>
@@ -1443,7 +1445,7 @@
       <c r="I58" s="1"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D59"/>
       <c r="E59" s="1"/>
       <c r="F59"/>
@@ -1452,7 +1454,7 @@
       <c r="I59" s="1"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D60"/>
       <c r="E60" s="1"/>
       <c r="F60"/>
@@ -1461,7 +1463,7 @@
       <c r="I60" s="1"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61"/>
       <c r="E61" s="1"/>
       <c r="F61"/>
@@ -1470,7 +1472,7 @@
       <c r="I61" s="1"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="D62"/>
       <c r="E62" s="1"/>
@@ -1480,7 +1482,7 @@
       <c r="I62" s="1"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="D63"/>
       <c r="E63" s="1"/>
@@ -1490,7 +1492,7 @@
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="D64"/>
       <c r="E64" s="1"/>
@@ -1500,7 +1502,7 @@
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="D65"/>
       <c r="E65" s="1"/>
@@ -1510,7 +1512,7 @@
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
@@ -1519,7 +1521,7 @@
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
@@ -1540,7 +1542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1552,7 +1554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
